--- a/unique_names.xlsx
+++ b/unique_names.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -12,13 +12,174 @@
     <sheet name="yr" sheetId="3" r:id="rId3"/>
     <sheet name="type" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+  <si>
+    <t>CA00</t>
+  </si>
+  <si>
+    <t>CB00</t>
+  </si>
+  <si>
+    <t>CW00</t>
+  </si>
+  <si>
+    <t>CH00</t>
+  </si>
+  <si>
+    <t>CI00</t>
+  </si>
+  <si>
+    <t>C200</t>
+  </si>
+  <si>
+    <t>C300</t>
+  </si>
+  <si>
+    <t>C400</t>
+  </si>
+  <si>
+    <t>CF00</t>
+  </si>
+  <si>
+    <t>CM00</t>
+  </si>
+  <si>
+    <t>CE00</t>
+  </si>
+  <si>
+    <t>CS00</t>
+  </si>
+  <si>
+    <t>CR00</t>
+  </si>
+  <si>
+    <t>CL00</t>
+  </si>
+  <si>
+    <t>AR010</t>
+  </si>
+  <si>
+    <t>AR01S</t>
+  </si>
+  <si>
+    <t>AR042</t>
+  </si>
+  <si>
+    <t>AR030</t>
+  </si>
+  <si>
+    <t>AR03A</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>group_labels</t>
+  </si>
+  <si>
+    <t>subject_labels</t>
+  </si>
+  <si>
+    <t>year_labels</t>
+  </si>
+  <si>
+    <t>type_labels</t>
+  </si>
+  <si>
+    <t>group_code</t>
+  </si>
+  <si>
+    <t>subject_code</t>
+  </si>
+  <si>
+    <t>Denominaotr</t>
+  </si>
+  <si>
+    <t>Numerator</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>type_code</t>
+  </si>
+  <si>
+    <t>All Students</t>
+  </si>
+  <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Hispanic </t>
+  </si>
+  <si>
+    <t>American Indian</t>
+  </si>
+  <si>
+    <t>Two or More Races</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Pacific Islander</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Econ Disadv</t>
+  </si>
+  <si>
+    <t>Special Ed</t>
+  </si>
+  <si>
+    <t>At Risk</t>
+  </si>
+  <si>
+    <t>ELL</t>
+  </si>
+  <si>
+    <t>Reading/ELA Performance</t>
+  </si>
+  <si>
+    <t>Reading/ELA</t>
+  </si>
+  <si>
+    <t>meeting level 2 requirement for Reading</t>
+  </si>
+  <si>
+    <t>missing code?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +194,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,17 +222,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -144,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,6 +352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,116 +528,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>.x..i..</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CA00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CB00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CW00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CH00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CI00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C200</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C300</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C400</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CF00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CM00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CE00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CS00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CR00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CL00</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -471,53 +663,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>.x..i..</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AR010</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AR01S</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AR042</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AR030</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AR03A</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -526,32 +726,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>.x..i..</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
@@ -560,39 +765,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>.x..i..</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
